--- a/DB定義.xlsx
+++ b/DB定義.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="1500" windowWidth="23520" windowHeight="11900" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="2100" yWindow="1980" windowWidth="23520" windowHeight="11900" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>テーブル定義書</t>
     <rPh sb="4" eb="7">
@@ -279,21 +279,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品紹介文</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ショウカイブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FilmUrl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FilmIntro</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -381,6 +367,27 @@
     <rPh sb="19" eb="21">
       <t>カンリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="STIXGeneral-Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>⚪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lucida Grande"/>
+        <family val="2"/>
+      </rPr>
+      <t>︎</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -705,7 +712,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -751,12 +758,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -769,14 +770,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1439,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1458,71 +1462,71 @@
       <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="1:12" ht="50" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="B3" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" thickBot="1">
       <c r="A4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:12" ht="19" thickBot="1"/>
     <row r="6" spans="1:12" ht="19" thickBot="1">
@@ -1575,13 +1579,15 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36" t="s">
+      <c r="F7" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="33" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="36" t="s">
+      <c r="I7" s="34"/>
+      <c r="J7" s="33" t="s">
         <v>26</v>
       </c>
       <c r="K7" s="3"/>
@@ -1592,7 +1598,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
@@ -1601,13 +1607,13 @@
         <v>255</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32" t="s">
+      <c r="F8" s="29"/>
+      <c r="G8" s="30" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="29"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
@@ -1616,7 +1622,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
@@ -1625,13 +1631,13 @@
         <v>255</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32" t="s">
+      <c r="F9" s="29"/>
+      <c r="G9" s="30" t="s">
         <v>26</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="29"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
@@ -1640,7 +1646,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -1649,37 +1655,27 @@
         <v>255</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32" t="s">
+      <c r="F10" s="29"/>
+      <c r="G10" s="30" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="29"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="19">
-      <c r="A11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2">
-        <v>255</v>
-      </c>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32" t="s">
-        <v>26</v>
-      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="29"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
@@ -1689,80 +1685,66 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="29"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="2"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="2" t="s">
-        <v>49</v>
+      <c r="I14" s="31"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="32" t="s">
+        <v>48</v>
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="2"/>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/DB定義.xlsx
+++ b/DB定義.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26518"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1980" windowWidth="23520" windowHeight="11900" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="20" yWindow="620" windowWidth="21320" windowHeight="12840" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="2" r:id="rId2"/>
     <sheet name="シート一覧" sheetId="3" r:id="rId3"/>
-    <sheet name="movieテーブル" sheetId="4" r:id="rId4"/>
+    <sheet name="moviesテーブル" sheetId="4" r:id="rId4"/>
+    <sheet name="movie_typeテーブル" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>テーブル定義書</t>
     <rPh sb="4" eb="7">
@@ -229,18 +230,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>movieテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>movie</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>movieテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>varchar</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -283,29 +272,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画像はjpgみたいな形式保存？</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>それとも保存URLの格納</t>
-    <rPh sb="4" eb="6">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FilmTitle</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -328,45 +294,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UpdateDate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>timestamp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0000-00-00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CURRENT_TIMESTAMP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高評価(基準未定)の映画DVDの情報を管理</t>
-    <rPh sb="0" eb="3">
-      <t>コウヒョウカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キジュン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>テイギミテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンリ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -388,6 +320,175 @@
       </rPr>
       <t>︎</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高評価(基準未定)の洋画ジャンルの映画DVDの情報を管理</t>
+    <rPh sb="0" eb="3">
+      <t>コウヒョウカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイギミテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウガ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>エイガ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高評価(基準未定)の方がジャンルの映画DVDの情報を管理</t>
+    <rPh sb="0" eb="3">
+      <t>コウヒョウカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイギミテイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>エイガ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="STIXGeneral-Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>⚪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lucida Grande"/>
+        <family val="2"/>
+      </rPr>
+      <t>︎</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moviesテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie_typeテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie_typeのテーブル作成</t>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie_typeテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>映画タイプ</t>
+    <rPh sb="0" eb="2">
+      <t>エイガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="STIXGeneral-Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>⚪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lucida Grande"/>
+        <family val="2"/>
+      </rPr>
+      <t>︎</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movieID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>映画 ID</t>
+    <rPh sb="0" eb="2">
+      <t>エイガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie_typeテーブル.movieID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -697,7 +798,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -711,8 +812,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -776,20 +891,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="27">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -797,6 +929,13 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1128,7 +1267,7 @@
   <dimension ref="A7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1155,7 +1294,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1206,7 +1345,12 @@
       <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="1:26" s="16" customFormat="1">
-      <c r="A4" s="4"/>
+      <c r="A4" s="35">
+        <v>42375</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:26" s="16" customFormat="1">
       <c r="A5" s="4"/>
@@ -1291,7 +1435,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1341,13 +1485,17 @@
         <v>11</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3">
@@ -1443,17 +1591,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="21.83203125" customWidth="1"/>
     <col min="6" max="7" width="12.83203125" style="23"/>
-    <col min="9" max="9" width="12.83203125" style="24"/>
+    <col min="9" max="9" width="30.5" style="24" customWidth="1"/>
     <col min="10" max="10" width="18.1640625" style="23" customWidth="1"/>
     <col min="11" max="11" width="21.33203125" customWidth="1"/>
   </cols>
@@ -1462,71 +1610,71 @@
       <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="B1" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="B2" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" ht="50" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
+      <c r="B3" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" thickBot="1">
       <c r="A4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="1:12" ht="19" thickBot="1"/>
     <row r="6" spans="1:12" ht="19" thickBot="1">
@@ -1569,7 +1717,7 @@
     </row>
     <row r="7" spans="1:12" ht="19">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>28</v>
@@ -1580,7 +1728,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="33" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>26</v>
@@ -1595,13 +1743,13 @@
     </row>
     <row r="8" spans="1:12" ht="19">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>255</v>
@@ -1619,13 +1767,13 @@
     </row>
     <row r="9" spans="1:12" ht="19">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>255</v>
@@ -1643,13 +1791,13 @@
     </row>
     <row r="10" spans="1:12" ht="19">
       <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>255</v>
@@ -1666,15 +1814,23 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="31"/>
+      <c r="I11" s="39" t="s">
+        <v>60</v>
+      </c>
       <c r="J11" s="29"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1693,59 +1849,53 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="19">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="G13" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="31"/>
       <c r="J13" s="29"/>
-      <c r="K13" s="2" t="s">
-        <v>47</v>
+      <c r="K13" s="32" t="s">
+        <v>40</v>
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" ht="19">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="G14" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="31"/>
       <c r="J14" s="29"/>
       <c r="K14" s="32" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L14" s="2"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1763,4 +1913,199 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+    </row>
+    <row r="3" spans="1:12" ht="50" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+    </row>
+    <row r="4" spans="1:12" ht="40" customHeight="1" thickBot="1">
+      <c r="A4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+    </row>
+    <row r="5" spans="1:12" ht="19" thickBot="1">
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:12" ht="19" thickBot="1">
+      <c r="A6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="19">
+      <c r="A8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/DB定義.xlsx
+++ b/DB定義.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26518"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="620" windowWidth="21320" windowHeight="12840" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="5380" yWindow="560" windowWidth="21320" windowHeight="12840" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -892,12 +892,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -906,6 +900,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -1293,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1610,71 +1610,71 @@
       <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
     </row>
     <row r="3" spans="1:12" ht="50" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" thickBot="1">
       <c r="A4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12" ht="19" thickBot="1"/>
     <row r="6" spans="1:12" ht="19" thickBot="1">
@@ -1828,7 +1828,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="37" t="s">
         <v>60</v>
       </c>
       <c r="J11" s="29"/>
@@ -1919,7 +1919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1936,71 +1936,71 @@
       <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
     </row>
     <row r="3" spans="1:12" ht="50" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:12" ht="40" customHeight="1" thickBot="1">
       <c r="A4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12" ht="19" thickBot="1">
       <c r="F5" s="23"/>
@@ -2063,7 +2063,7 @@
         <v>56</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="38"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="30" t="s">
         <v>56</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>26</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="40"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="33"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>

--- a/DB定義.xlsx
+++ b/DB定義.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26518"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="560" windowWidth="21320" windowHeight="12840" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6460" yWindow="640" windowWidth="21320" windowHeight="12840" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>テーブル定義書</t>
     <rPh sb="4" eb="7">
@@ -489,6 +489,37 @@
   </si>
   <si>
     <t>varchar(20)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品説明文のカラム(itemCaption)の追加</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セツメイブン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>映画説明文</t>
+    <rPh sb="0" eb="2">
+      <t>エイガ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セツメイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemCaption</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -798,8 +829,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -908,7 +941,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -922,6 +955,7 @@
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -936,6 +970,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1293,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1353,7 +1388,12 @@
       </c>
     </row>
     <row r="5" spans="1:26" s="16" customFormat="1">
-      <c r="A5" s="4"/>
+      <c r="A5" s="35">
+        <v>42383</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:26" s="16" customFormat="1">
       <c r="A6" s="4"/>
@@ -1591,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1836,46 +1876,44 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="2">
+        <v>255</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="31"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="29"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="19">
-      <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="30" t="s">
-        <v>46</v>
-      </c>
+      <c r="G13" s="29"/>
       <c r="H13" s="2"/>
       <c r="I13" s="31"/>
       <c r="J13" s="29"/>
-      <c r="K13" s="32" t="s">
-        <v>40</v>
-      </c>
+      <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="19">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>45</v>
@@ -1896,6 +1934,30 @@
         <v>40</v>
       </c>
       <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="19">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
